--- a/JieLongMod_6/Excel/J剧情_通用.xlsx
+++ b/JieLongMod_6/Excel/J剧情_通用.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="534">
   <si>
     <t>剧情事件ID_StoryEvenID</t>
   </si>
@@ -678,10 +678,38 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">*第一棒仪玄#乖徒儿，行此大礼，为师也不吝啬，这些物资几拿去吧。
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IF*[%is_custom_cd:第一棒调戏师父物资%][=]0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+*第一棒仪玄#乖徒儿，行此大礼，为师也不吝啬，这些物资几拿去吧。
+GET_RND_ITEM*金钱,[%rnd_range:10:50%]|木材,[%rnd_range:5:10%]|铁石,[%rnd_range:5:10%]|玉石,[%rnd_range:1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">%]
 </t>
     </r>
     <r>
@@ -691,7 +719,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>GET_RND_ITEM*金钱,[%rnd_range:10:50%]|木材,[%rnd_range:5:10%]|铁石,[%rnd_range:5:10%]|玉石,[%rnd_range:1:5%]</t>
+      <t>SET_CUSTOM_CD*第一棒调戏师父物资#7
+END_IF*
+IF*[%is_custom_cd:第一棒调戏师父物资%][&gt;]0
+*第一棒仪玄#乖徒儿，行此大礼。为师父会为你备些物资，待[%get_custom_cd:第一棒调戏师父物资%]天后找我取用吧。
+END_IF*</t>
     </r>
   </si>
   <si>
@@ -4184,61 +4216,6 @@
     <t>1[=]1:GETITEMS*[%last_seled_item_id%],1</t>
   </si>
   <si>
-    <t>第一棒开场动画</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CLOSE_ITEM_PANEL*
-RUN_SCRIPT_FUNC*plasticTest#AudioClose#0
-OPEN_GUI*dpcqGUI#dpcqVedio#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gui/JLVideoWin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">#{ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"video_path":"Assets/BuildSource/video/欢迎来到随便观.prefab", "exit_time":""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> }</t>
-    </r>
-  </si>
-  <si>
-    <t>1[=]1:EVENT*第一棒开局</t>
-  </si>
-  <si>
     <t>第一棒师父英姿</t>
   </si>
   <si>
@@ -4261,6 +4238,55 @@
 exit_time：自动退出时间</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CLOSE_ITEM_PANEL*
+RUN_SCRIPT_FUNC*plasticTest#AudioClose#0
+OPEN_GUI*dpcqGUI#dpcqVedio#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gui/JLVideoWin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">#{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"video_path":"Assets/BuildSource/video/欢迎来到随便观.prefab", "exit_time":""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
     <t>1[=]1:RUN_SCRIPT_FUNC*plasticTest#AudioClose#1</t>
   </si>
   <si>
@@ -4497,13 +4523,68 @@
     <t>随便观主殿入口</t>
   </si>
   <si>
-    <t>TELEPORT*随便观主殿内:-270,70</t>
+    <t>E20251023：调整地图布局，坐标相应调整</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TELEPORT*随便观主殿内:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-220,-92</t>
+    </r>
   </si>
   <si>
     <t>随便观主殿内出口</t>
   </si>
   <si>
-    <t>TELEPORT*suibianguan:830,1150</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TELEPORT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随便观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>920,1350</t>
+    </r>
   </si>
   <si>
     <t>第三棒战斗结束计算本场感悟变化</t>
@@ -7240,7 +7321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7328,16 +7409,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7366,9 +7447,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7767,12 +7845,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
+      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="4"/>
@@ -8517,12 +8595,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="30" spans="1:4">
+    <row r="66" s="2" customFormat="1" ht="120" spans="1:4">
       <c r="A66" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B66" s="15"/>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="24" t="s">
         <v>136</v>
       </c>
       <c r="D66" s="24" t="s">
@@ -10616,360 +10694,353 @@
         <v>460</v>
       </c>
     </row>
-    <row r="260" ht="42" spans="1:4">
+    <row r="260" ht="90" spans="1:4">
       <c r="A260" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C260" s="28" t="s">
+      <c r="C260" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="D260" s="16" t="s">
+      <c r="D260" s="27" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="261" ht="90" spans="1:4">
+    <row r="261" ht="112" spans="1:4">
       <c r="A261" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C261" s="9" t="s">
+      <c r="B261" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="D261" s="27" t="s">
+      <c r="C261" s="28" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="262" ht="112" spans="1:4">
+      <c r="D261" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="262" ht="42" spans="1:4">
       <c r="A262" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C262" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="D262" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C262" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="D262" s="9" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="263" ht="42" spans="1:4">
       <c r="A263" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="264" ht="42" spans="1:4">
       <c r="A264" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="265" ht="42" spans="1:4">
       <c r="A265" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="266" ht="42" spans="1:4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="266" ht="93.95" customHeight="1" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B266" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C266" s="28" t="s">
+      <c r="C266" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D266" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="267" ht="93.95" customHeight="1" spans="1:3">
+    </row>
+    <row r="267" customFormat="1" ht="93.95" customHeight="1" spans="1:5">
       <c r="A267" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="B267" s="29" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="268" customFormat="1" ht="93.95" customHeight="1" spans="1:5">
-      <c r="A268" s="6" t="s">
+      <c r="C267" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="B268" s="7"/>
-      <c r="C268" s="9" t="s">
+      <c r="D267" s="9"/>
+      <c r="E267" s="8"/>
+    </row>
+    <row r="268" s="3" customFormat="1" ht="81.95" customHeight="1" spans="1:5">
+      <c r="A268" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="D268" s="9"/>
-      <c r="E268" s="8"/>
-    </row>
-    <row r="269" s="3" customFormat="1" ht="81.95" customHeight="1" spans="1:5">
-      <c r="A269" s="29" t="s">
+      <c r="B268" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C268" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="B269" s="30"/>
+      <c r="D268" s="31"/>
+      <c r="E268" s="4"/>
+    </row>
+    <row r="269" s="4" customFormat="1" ht="81.95" customHeight="1" spans="1:4">
+      <c r="A269" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B269" s="32"/>
       <c r="C269" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="D269" s="32"/>
-      <c r="E269" s="4"/>
-    </row>
-    <row r="270" s="4" customFormat="1" ht="81.95" customHeight="1" spans="1:4">
-      <c r="A270" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="B270" s="30"/>
-      <c r="C270" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D270" s="32" t="s">
+    </row>
+    <row r="270" s="4" customFormat="1" ht="102.95" customHeight="1" spans="1:4">
+      <c r="A270" s="30" t="s">
         <v>489</v>
       </c>
+      <c r="B270" s="32"/>
+      <c r="C270" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="271" s="4" customFormat="1" ht="102.95" customHeight="1" spans="1:4">
-      <c r="A271" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="B271" s="30"/>
-      <c r="C271" s="32" t="s">
+      <c r="A271" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="B271" s="32"/>
+      <c r="C271" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D271" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D271" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="272" s="4" customFormat="1" ht="102.95" customHeight="1" spans="1:4">
-      <c r="A272" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="B272" s="30"/>
-      <c r="C272" s="32" t="s">
+    </row>
+    <row r="273" ht="30" spans="1:4">
+      <c r="A273" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>492</v>
-      </c>
+      <c r="B273" s="34"/>
+      <c r="C273" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="D273" s="36"/>
     </row>
     <row r="274" ht="30" spans="1:4">
       <c r="A274" s="33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B274" s="34"/>
       <c r="C274" s="35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D274" s="36"/>
     </row>
     <row r="275" ht="30" spans="1:4">
       <c r="A275" s="33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B275" s="34"/>
       <c r="C275" s="35" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D275" s="36"/>
     </row>
     <row r="276" ht="30" spans="1:4">
       <c r="A276" s="33" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B276" s="34"/>
       <c r="C276" s="35" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D276" s="36"/>
     </row>
     <row r="277" ht="30" spans="1:4">
       <c r="A277" s="33" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B277" s="34"/>
       <c r="C277" s="35" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D277" s="36"/>
     </row>
     <row r="278" ht="30" spans="1:4">
       <c r="A278" s="33" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B278" s="34"/>
       <c r="C278" s="35" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D278" s="36"/>
     </row>
     <row r="279" ht="30" spans="1:4">
       <c r="A279" s="33" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B279" s="34"/>
       <c r="C279" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="D279" s="36"/>
-    </row>
-    <row r="280" ht="30" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="D279" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="280" ht="15" spans="1:4">
       <c r="A280" s="33" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B280" s="34"/>
       <c r="C280" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="D280" s="37" t="s">
-        <v>509</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="D280" s="37"/>
     </row>
     <row r="281" ht="15" spans="1:4">
       <c r="A281" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B281" s="34"/>
       <c r="C281" s="35" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D281" s="37"/>
     </row>
     <row r="282" ht="15" spans="1:4">
       <c r="A282" s="33" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B282" s="34"/>
       <c r="C282" s="35" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D282" s="37"/>
     </row>
-    <row r="283" ht="15" spans="1:4">
+    <row r="283" ht="315" spans="1:4">
       <c r="A283" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="B283" s="34"/>
+        <v>515</v>
+      </c>
+      <c r="B283" s="38"/>
       <c r="C283" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="D283" s="37"/>
-    </row>
-    <row r="284" ht="315" spans="1:4">
+        <v>516</v>
+      </c>
+      <c r="D283" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="284" ht="75" spans="1:4">
       <c r="A284" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="B284" s="38"/>
-      <c r="C284" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="D284" s="39" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="285" ht="75" spans="1:4">
-      <c r="A285" s="33" t="s">
+      <c r="B284" s="33"/>
+      <c r="C284" s="33" t="s">
         <v>519</v>
       </c>
+      <c r="D284" s="40"/>
+    </row>
+    <row r="285" ht="15" spans="1:3">
+      <c r="A285" s="33"/>
       <c r="B285" s="33"/>
-      <c r="C285" s="33" t="s">
+      <c r="C285" s="33"/>
+    </row>
+    <row r="286" s="5" customFormat="1" ht="70" spans="1:4">
+      <c r="A286" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="D285" s="40"/>
-    </row>
-    <row r="286" ht="15" spans="1:3">
-      <c r="A286" s="33"/>
-      <c r="B286" s="33"/>
-      <c r="C286" s="33"/>
-    </row>
-    <row r="287" s="5" customFormat="1" ht="70" spans="1:4">
+      <c r="B286" s="29"/>
+      <c r="C286" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="D286" s="28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="287" s="5" customFormat="1" ht="56" spans="1:4">
       <c r="A287" s="41" t="s">
-        <v>521</v>
-      </c>
-      <c r="B287" s="42"/>
-      <c r="C287" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="D287" s="28" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="288" s="5" customFormat="1" ht="56" spans="1:4">
+      <c r="B287" s="29"/>
+      <c r="C287" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="D287" s="42"/>
+    </row>
+    <row r="288" s="5" customFormat="1" spans="1:4">
       <c r="A288" s="41" t="s">
-        <v>524</v>
-      </c>
-      <c r="B288" s="42"/>
-      <c r="C288" s="43" t="s">
         <v>525</v>
       </c>
-      <c r="D288" s="43"/>
-    </row>
-    <row r="289" s="5" customFormat="1" spans="1:4">
+      <c r="B288" s="29"/>
+      <c r="C288" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D288" s="42"/>
+    </row>
+    <row r="289" s="5" customFormat="1" ht="28" spans="1:4">
       <c r="A289" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="B289" s="42"/>
-      <c r="C289" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D289" s="43"/>
-    </row>
-    <row r="290" s="5" customFormat="1" ht="28" spans="1:4">
+      <c r="B289" s="29"/>
+      <c r="C289" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="D289" s="42"/>
+    </row>
+    <row r="290" s="5" customFormat="1" spans="1:4">
       <c r="A290" s="41" t="s">
-        <v>528</v>
-      </c>
-      <c r="B290" s="42"/>
-      <c r="C290" s="43" t="s">
         <v>529</v>
       </c>
-      <c r="D290" s="43"/>
-    </row>
-    <row r="291" s="5" customFormat="1" spans="1:4">
+      <c r="B290" s="29"/>
+      <c r="C290" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="D290" s="42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="291" s="5" customFormat="1" ht="42" spans="1:4">
       <c r="A291" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="B291" s="42"/>
-      <c r="C291" s="43" t="s">
-        <v>531</v>
-      </c>
-      <c r="D291" s="43" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="292" s="5" customFormat="1" ht="42" spans="1:4">
-      <c r="A292" s="41" t="s">
+      <c r="B291" s="29"/>
+      <c r="C291" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="B292" s="42"/>
-      <c r="C292" s="43" t="s">
-        <v>534</v>
-      </c>
-      <c r="D292" s="43"/>
+      <c r="D291" s="42"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1 A69:A70 A72:A73 A75:A76 A78:A79 A84:A85 A87:A88 A90:A91 A93:A94 A98:A99 A101:A102 A104:A105 A107:A108 A112:A113 A115:A116 A118:A119 A121:A122 A126:A127 A129:A130 A132:A133 A135:A136 A140:A141 A143:A144 A146:A147 A149:A150 A154:A155 A157:A158 A160:A161 A163:A164 A168:A169 A171:A172 A174:A175 A177:A178 A182:A183 A185:A186 A188:A189 A191:A192 A196:A197 A199:A200 A202:A203 A205:A206 A210:A211 A213:A214 A216:A217 A219:A220 A224:A225 A227:A228 A230:A231 A233:A234 A238:A239 A241:A242 A244:A245 A247:A248 A269:A272" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1 A69:A70 A72:A73 A75:A76 A78:A79 A84:A85 A87:A88 A90:A91 A93:A94 A98:A99 A101:A102 A104:A105 A107:A108 A112:A113 A115:A116 A118:A119 A121:A122 A126:A127 A129:A130 A132:A133 A135:A136 A140:A141 A143:A144 A146:A147 A149:A150 A154:A155 A157:A158 A160:A161 A163:A164 A168:A169 A171:A172 A174:A175 A177:A178 A182:A183 A185:A186 A188:A189 A191:A192 A196:A197 A199:A200 A202:A203 A205:A206 A210:A211 A213:A214 A216:A217 A219:A220 A224:A225 A227:A228 A230:A231 A233:A234 A238:A239 A241:A242 A244:A245 A247:A248 A268:A271" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/JieLongMod_6/Excel/J剧情_通用.xlsx
+++ b/JieLongMod_6/Excel/J剧情_通用.xlsx
@@ -4527,12 +4527,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>TELEPORT*随便观主殿内:</t>
     </r>
     <r>
@@ -4542,7 +4536,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>-220,-92</t>
+      <t>-92,-290</t>
     </r>
   </si>
   <si>
@@ -7847,10 +7841,10 @@
   <sheetPr/>
   <dimension ref="A1:E291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
+      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="4"/>
